--- a/assets/Exel/Ex.Import file data monitor.xlsx
+++ b/assets/Exel/Ex.Import file data monitor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventory\assets\Exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24785C7D-3E45-4FF4-A4EC-FC197D7EA37D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A230A78C-31A7-4A49-98AE-8CC3AE38A661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -70,64 +70,40 @@
     <t>2023-12-12</t>
   </si>
   <si>
-    <t>Dell Inspiron N3010</t>
-  </si>
-  <si>
-    <t>Ex.Projek KDL</t>
-  </si>
-  <si>
-    <t>Disitribusikan</t>
+    <t>Catatan :</t>
+  </si>
+  <si>
+    <t>Serial Tidak Boleh Sama !!!</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>VGA</t>
+  </si>
+  <si>
+    <t>Monitor 1</t>
+  </si>
+  <si>
+    <t>Monitor 2</t>
+  </si>
+  <si>
+    <t>Monitor 3</t>
+  </si>
+  <si>
+    <t>0000-00-01</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>0000-00-02</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>BLANKS</t>
-  </si>
-  <si>
-    <t>Dell Latitude 3330</t>
-  </si>
-  <si>
-    <t>Ex.Projek KJS</t>
-  </si>
-  <si>
-    <t>CSR</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>7123221A</t>
-  </si>
-  <si>
-    <t>7123221B</t>
-  </si>
-  <si>
-    <t>7123221C</t>
-  </si>
-  <si>
-    <t>Catatan :</t>
-  </si>
-  <si>
-    <t>Serial Tidak Boleh Sama !!!</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>VGA</t>
-  </si>
-  <si>
-    <t>HDMI</t>
-  </si>
-  <si>
-    <t>DP,VGA</t>
-  </si>
-  <si>
-    <t>Monitor 1</t>
-  </si>
-  <si>
-    <t>Monitor 2</t>
-  </si>
-  <si>
-    <t>Monitor 3</t>
   </si>
 </sst>
 </file>
@@ -514,7 +490,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,8 +498,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
@@ -550,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -582,10 +557,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100001</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -597,10 +572,10 @@
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -611,31 +586,31 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100002</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -643,31 +618,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100003</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
